--- a/docu/Rahmen-Schaetzung.xlsx
+++ b/docu/Rahmen-Schaetzung.xlsx
@@ -5,10 +5,10 @@
   <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bswar\Desktop\Praxisprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bswar\Desktop\Praxisprojekt\IT-Projekt\docu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC9FB3C7-C62B-45E2-A96B-184F647267C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C0C8E6-352F-4854-B9B2-FEFDCB319351}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="D40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -146,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="G40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D54" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="C55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -174,20 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C61" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>#Personen * Stunden</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D69" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="D63" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -379,7 +366,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="104">
   <si>
     <t>Use-Cases</t>
   </si>
@@ -1715,10 +1702,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+      <selection activeCell="P57" sqref="P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1832,7 +1819,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="39">
         <f>SUM(K7:K15)</f>
-        <v>80</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -1850,7 +1837,7 @@
       <c r="I7" s="89"/>
       <c r="J7" s="54"/>
       <c r="K7" s="55">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -1868,12 +1855,12 @@
       <c r="I8" s="89"/>
       <c r="J8" s="54"/>
       <c r="K8" s="56">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="88" t="str">
-        <f>A30</f>
+        <f>A29</f>
         <v>Use-Cases</v>
       </c>
       <c r="B9" s="89"/>
@@ -1886,12 +1873,12 @@
       <c r="I9" s="89"/>
       <c r="J9" s="54"/>
       <c r="K9" s="55">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="88" t="str">
-        <f>A37</f>
+        <f>A36</f>
         <v>Infrastruktur</v>
       </c>
       <c r="B10" s="89"/>
@@ -1904,12 +1891,12 @@
       <c r="I10" s="89"/>
       <c r="J10" s="54"/>
       <c r="K10" s="55">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="88" t="str">
-        <f>A41</f>
+        <f>A40</f>
         <v>Entwicklung Software-Funktionen</v>
       </c>
       <c r="B11" s="89"/>
@@ -1922,7 +1909,7 @@
       <c r="I11" s="89"/>
       <c r="J11" s="54"/>
       <c r="K11" s="55">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -1940,7 +1927,7 @@
     </row>
     <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="88" t="str">
-        <f>A58</f>
+        <f>A52</f>
         <v>Integrationstest (bei 2 Entwicklungszyklen)</v>
       </c>
       <c r="B13" s="89"/>
@@ -1953,12 +1940,12 @@
       <c r="I13" s="89"/>
       <c r="J13" s="54"/>
       <c r="K13" s="55">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="88" t="str">
-        <f>A61</f>
+        <f>A55</f>
         <v>Systemtest</v>
       </c>
       <c r="B14" s="89"/>
@@ -1971,12 +1958,12 @@
       <c r="I14" s="89"/>
       <c r="J14" s="54"/>
       <c r="K14" s="55">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="77" t="str">
-        <f>A69</f>
+        <f>A63</f>
         <v>Handbücher &amp; Lieferdokumentation</v>
       </c>
       <c r="B15" s="78"/>
@@ -1989,7 +1976,7 @@
       <c r="I15" s="79"/>
       <c r="J15" s="21"/>
       <c r="K15" s="57">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2066,7 +2053,7 @@
       <c r="I19" s="61"/>
       <c r="J19" s="33"/>
       <c r="K19" s="41">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -2083,7 +2070,7 @@
       <c r="I20" s="61"/>
       <c r="J20" s="33"/>
       <c r="K20" s="42">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -2162,8 +2149,8 @@
       </c>
       <c r="J24" s="54"/>
       <c r="K24" s="17">
-        <f>SUM(K25:K29)</f>
-        <v>16</v>
+        <f>SUM(K25:K28)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -2180,7 +2167,7 @@
       <c r="I25" s="61"/>
       <c r="J25" s="33"/>
       <c r="K25" s="41">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2214,10 +2201,10 @@
       <c r="I27" s="61"/>
       <c r="J27" s="33"/>
       <c r="K27" s="42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>91</v>
       </c>
@@ -2234,54 +2221,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="59"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22" t="s">
+    <row r="29" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B29" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C29" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23" t="s">
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="23"/>
-      <c r="H30" s="24" t="s">
+      <c r="G29" s="23"/>
+      <c r="H29" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="I30" s="48" t="s">
+      <c r="I29" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="J30" s="54"/>
-      <c r="K30" s="20">
-        <f>SUM(K31:K36)</f>
-        <v>7</v>
+      <c r="J29" s="54"/>
+      <c r="K29" s="20">
+        <f>SUM(K30:K35)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="59"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="41">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="58" t="s">
-        <v>14</v>
+      <c r="A31" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="B31" s="59"/>
       <c r="C31" s="33"/>
@@ -2292,13 +2279,13 @@
       <c r="H31" s="38"/>
       <c r="I31" s="61"/>
       <c r="J31" s="33"/>
-      <c r="K31" s="41">
-        <v>1</v>
+      <c r="K31" s="42">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B32" s="59"/>
       <c r="C32" s="33"/>
@@ -2310,12 +2297,12 @@
       <c r="I32" s="61"/>
       <c r="J32" s="33"/>
       <c r="K32" s="42">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B33" s="59"/>
       <c r="C33" s="33"/>
@@ -2327,12 +2314,12 @@
       <c r="I33" s="61"/>
       <c r="J33" s="33"/>
       <c r="K33" s="42">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B34" s="59"/>
       <c r="C34" s="33"/>
@@ -2347,69 +2334,69 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="59"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="42">
+    <row r="35" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="43">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="69"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="22" t="s">
+    <row r="36" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B36" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C36" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D36" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="30" t="s">
+      <c r="E36" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="73">
-        <f>SUM(K38:K40)</f>
-        <v>3</v>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="73">
+        <f>SUM(K37:K39)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="41">
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="63" t="s">
-        <v>84</v>
+      <c r="A38" s="36" t="s">
+        <v>85</v>
       </c>
       <c r="B38" s="59"/>
       <c r="C38" s="59"/>
@@ -2420,13 +2407,13 @@
       <c r="H38" s="38"/>
       <c r="I38" s="61"/>
       <c r="J38" s="33"/>
-      <c r="K38" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="36" t="s">
-        <v>85</v>
+      <c r="K38" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="64" t="s">
+        <v>86</v>
       </c>
       <c r="B39" s="59"/>
       <c r="C39" s="59"/>
@@ -2437,64 +2424,64 @@
       <c r="H39" s="38"/>
       <c r="I39" s="61"/>
       <c r="J39" s="33"/>
-      <c r="K39" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="64" t="s">
-        <v>86</v>
-      </c>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="61"/>
+      <c r="K39" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="G40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" s="48" t="s">
+        <v>94</v>
+      </c>
       <c r="J40" s="33"/>
-      <c r="K40" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="30" t="s">
+      <c r="K40" s="20">
+        <f>SUM(K41:K51)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="41">
         <v>6</v>
       </c>
-      <c r="E41" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="G41" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I41" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="J41" s="33"/>
-      <c r="K41" s="20">
-        <f>SUM(K42:K53)</f>
-        <v>31</v>
-      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="65" t="s">
-        <v>98</v>
+      <c r="A42" s="66" t="s">
+        <v>99</v>
       </c>
       <c r="B42" s="59"/>
       <c r="C42" s="59"/>
@@ -2505,13 +2492,13 @@
       <c r="H42" s="59"/>
       <c r="I42" s="61"/>
       <c r="J42" s="33"/>
-      <c r="K42" s="41">
-        <v>3</v>
+      <c r="K42" s="42">
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B43" s="59"/>
       <c r="C43" s="59"/>
@@ -2523,13 +2510,11 @@
       <c r="I43" s="61"/>
       <c r="J43" s="33"/>
       <c r="K43" s="42">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="66" t="s">
-        <v>100</v>
-      </c>
+      <c r="A44" s="66"/>
       <c r="B44" s="59"/>
       <c r="C44" s="59"/>
       <c r="D44" s="59"/>
@@ -2540,11 +2525,14 @@
       <c r="I44" s="61"/>
       <c r="J44" s="33"/>
       <c r="K44" s="42">
-        <v>3</v>
+        <f t="shared" ref="K44:K51" si="0">SUM(B44:H44)*(1+I44)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="66"/>
+      <c r="A45" s="66" t="s">
+        <v>101</v>
+      </c>
       <c r="B45" s="59"/>
       <c r="C45" s="59"/>
       <c r="D45" s="59"/>
@@ -2555,13 +2543,12 @@
       <c r="I45" s="61"/>
       <c r="J45" s="33"/>
       <c r="K45" s="42">
-        <f t="shared" ref="K43:K52" si="0">SUM(B45:H45)*(1+I45)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="66" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B46" s="59"/>
       <c r="C46" s="59"/>
@@ -2573,12 +2560,12 @@
       <c r="I46" s="61"/>
       <c r="J46" s="33"/>
       <c r="K46" s="42">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="66" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B47" s="59"/>
       <c r="C47" s="59"/>
@@ -2594,9 +2581,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="66" t="s">
-        <v>103</v>
-      </c>
+      <c r="A48" s="66"/>
       <c r="B48" s="59"/>
       <c r="C48" s="59"/>
       <c r="D48" s="59"/>
@@ -2607,11 +2592,14 @@
       <c r="I48" s="61"/>
       <c r="J48" s="33"/>
       <c r="K48" s="42">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="66"/>
+      <c r="A49" s="66" t="s">
+        <v>97</v>
+      </c>
       <c r="B49" s="59"/>
       <c r="C49" s="59"/>
       <c r="D49" s="59"/>
@@ -2622,14 +2610,11 @@
       <c r="I49" s="61"/>
       <c r="J49" s="33"/>
       <c r="K49" s="42">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="66" t="s">
-        <v>97</v>
-      </c>
+      <c r="A50" s="66"/>
       <c r="B50" s="59"/>
       <c r="C50" s="59"/>
       <c r="D50" s="59"/>
@@ -2640,10 +2625,11 @@
       <c r="I50" s="61"/>
       <c r="J50" s="33"/>
       <c r="K50" s="42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="66"/>
       <c r="B51" s="59"/>
       <c r="C51" s="59"/>
@@ -2659,104 +2645,105 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="66"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="59"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="61"/>
+    <row r="52" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="48" t="s">
+        <v>94</v>
+      </c>
       <c r="J52" s="33"/>
-      <c r="K52" s="42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6">
-        <f>SUM(B42:E52)</f>
-        <v>0</v>
-      </c>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6">
-        <f>SUM(F42:G52)</f>
-        <v>0</v>
-      </c>
-      <c r="H53" s="6">
-        <f>SUM(H42:H52)</f>
-        <v>0</v>
-      </c>
-      <c r="I53" s="6"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="52">
-        <f>(G53+H53)*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="30" t="s">
+      <c r="K52" s="20">
+        <f>SUM(K53:K54)</f>
         <v>5</v>
       </c>
-      <c r="D54" s="30" t="s">
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="61"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="30" t="s">
+      <c r="D55" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F54" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="G54" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="H54" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I54" s="48" t="s">
+      <c r="E55" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H55" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="I55" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="J54" s="33"/>
-      <c r="K54" s="20">
-        <f>SUM(K55:K57)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="61"/>
       <c r="J55" s="33"/>
-      <c r="K55" s="41">
-        <f>SUM(B55:H55)*(1+I55)</f>
-        <v>0</v>
+      <c r="K55" s="17">
+        <f>SUM(K56:K62)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="18" t="s">
-        <v>35</v>
+      <c r="A56" s="67" t="s">
+        <v>23</v>
       </c>
       <c r="B56" s="59"/>
       <c r="C56" s="59"/>
@@ -2767,138 +2754,93 @@
       <c r="H56" s="59"/>
       <c r="I56" s="61"/>
       <c r="J56" s="33"/>
-      <c r="K56" s="42">
-        <f>SUM(B56:H56)*(1+I56)</f>
+      <c r="K56" s="41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" s="59"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="61"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="18"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="61"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="42">
+        <f t="shared" ref="K58:K62" si="1">SUM(B58:H58)*(1+I58)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6">
-        <f>SUM(B55:E56)</f>
-        <v>0</v>
-      </c>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6">
-        <f>SUM(F55:G56)</f>
-        <v>0</v>
-      </c>
-      <c r="H57" s="6">
-        <f>SUM(H55:H56)</f>
-        <v>0</v>
-      </c>
-      <c r="I57" s="6"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="52">
-        <f>(G57+H57)*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C58" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D58" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E58" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="J58" s="33"/>
-      <c r="K58" s="20">
-        <f>SUM(K59:K60)</f>
-        <v>5</v>
-      </c>
-    </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="59"/>
       <c r="I59" s="61"/>
       <c r="J59" s="33"/>
-      <c r="K59" s="41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
+      <c r="K59" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="18"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="59"/>
       <c r="I60" s="61"/>
       <c r="J60" s="33"/>
-      <c r="K60" s="43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B61" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="F61" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="G61" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="H61" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="I61" s="48" t="s">
-        <v>94</v>
-      </c>
+      <c r="K60" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="67"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="51"/>
       <c r="J61" s="33"/>
-      <c r="K61" s="17">
-        <f>SUM(K62:K68)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="67" t="s">
-        <v>23</v>
-      </c>
+      <c r="K61" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="19"/>
       <c r="B62" s="59"/>
       <c r="C62" s="59"/>
       <c r="D62" s="59"/>
@@ -2908,215 +2850,119 @@
       <c r="H62" s="59"/>
       <c r="I62" s="61"/>
       <c r="J62" s="33"/>
-      <c r="K62" s="41">
+      <c r="K62" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="J63" s="33"/>
+      <c r="K63" s="17">
+        <f>SUM(K64:K68)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B63" s="59"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="59"/>
-      <c r="G63" s="59"/>
-      <c r="H63" s="59"/>
-      <c r="I63" s="61"/>
-      <c r="J63" s="33"/>
-      <c r="K63" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="18"/>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="67" t="s">
+        <v>68</v>
+      </c>
       <c r="B64" s="59"/>
       <c r="C64" s="59"/>
       <c r="D64" s="59"/>
       <c r="E64" s="59"/>
       <c r="F64" s="59"/>
-      <c r="G64" s="59"/>
-      <c r="H64" s="59"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
       <c r="I64" s="61"/>
       <c r="J64" s="33"/>
-      <c r="K64" s="42">
-        <f t="shared" ref="K62:K68" si="1">SUM(B64:H64)*(1+I64)</f>
-        <v>0</v>
+      <c r="K64" s="41">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="18"/>
+      <c r="A65" s="18" t="s">
+        <v>69</v>
+      </c>
       <c r="B65" s="59"/>
       <c r="C65" s="59"/>
       <c r="D65" s="59"/>
       <c r="E65" s="59"/>
       <c r="F65" s="59"/>
-      <c r="G65" s="59"/>
-      <c r="H65" s="59"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="38"/>
       <c r="I65" s="61"/>
       <c r="J65" s="33"/>
       <c r="K65" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="18"/>
+      <c r="A66" s="18" t="s">
+        <v>70</v>
+      </c>
       <c r="B66" s="59"/>
       <c r="C66" s="59"/>
       <c r="D66" s="59"/>
       <c r="E66" s="59"/>
       <c r="F66" s="59"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="59"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="38"/>
       <c r="I66" s="61"/>
       <c r="J66" s="33"/>
       <c r="K66" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="67"/>
-      <c r="B67" s="50"/>
-      <c r="C67" s="50"/>
-      <c r="D67" s="50"/>
-      <c r="E67" s="50"/>
-      <c r="F67" s="50"/>
-      <c r="G67" s="50"/>
-      <c r="H67" s="50"/>
-      <c r="I67" s="51"/>
+      <c r="A67" s="18"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="61"/>
       <c r="J67" s="33"/>
-      <c r="K67" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="K67" s="42"/>
     </row>
     <row r="68" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="19"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="59"/>
-      <c r="G68" s="59"/>
-      <c r="H68" s="59"/>
-      <c r="I68" s="61"/>
-      <c r="J68" s="33"/>
+      <c r="A68" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="68"/>
+      <c r="H68" s="68"/>
+      <c r="I68" s="69"/>
+      <c r="J68" s="26"/>
       <c r="K68" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C69" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D69" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E69" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="J69" s="33"/>
-      <c r="K69" s="17">
-        <f>SUM(K70:K74)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="B70" s="59"/>
-      <c r="C70" s="59"/>
-      <c r="D70" s="59"/>
-      <c r="E70" s="59"/>
-      <c r="F70" s="59"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="61"/>
-      <c r="J70" s="33"/>
-      <c r="K70" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B71" s="59"/>
-      <c r="C71" s="59"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="59"/>
-      <c r="F71" s="59"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="61"/>
-      <c r="J71" s="33"/>
-      <c r="K71" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72" s="59"/>
-      <c r="C72" s="59"/>
-      <c r="D72" s="59"/>
-      <c r="E72" s="59"/>
-      <c r="F72" s="59"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="61"/>
-      <c r="J72" s="33"/>
-      <c r="K72" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="18"/>
-      <c r="B73" s="59"/>
-      <c r="C73" s="59"/>
-      <c r="D73" s="59"/>
-      <c r="E73" s="59"/>
-      <c r="F73" s="59"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="61"/>
-      <c r="J73" s="33"/>
-      <c r="K73" s="42"/>
-    </row>
-    <row r="74" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="68"/>
-      <c r="H74" s="68"/>
-      <c r="I74" s="69"/>
-      <c r="J74" s="26"/>
-      <c r="K74" s="43">
         <v>1</v>
       </c>
     </row>

--- a/docu/Rahmen-Schaetzung.xlsx
+++ b/docu/Rahmen-Schaetzung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bswar\Desktop\Praxisprojekt\IT-Projekt\docu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C0C8E6-352F-4854-B9B2-FEFDCB319351}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991ED5F4-E046-4636-9372-ADA9355E8460}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="C54" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -174,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D63" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -366,7 +366,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="103">
   <si>
     <t>Use-Cases</t>
   </si>
@@ -684,9 +684,6 @@
   </si>
   <si>
     <t xml:space="preserve">Trainingseintrag anlegen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">trainingseintrag ändern </t>
   </si>
   <si>
     <t xml:space="preserve">Trainingseintrag löschen </t>
@@ -1702,10 +1699,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P57" sqref="P57"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1909,7 +1906,7 @@
       <c r="I11" s="89"/>
       <c r="J11" s="54"/>
       <c r="K11" s="55">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -1927,7 +1924,7 @@
     </row>
     <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="88" t="str">
-        <f>A52</f>
+        <f>A51</f>
         <v>Integrationstest (bei 2 Entwicklungszyklen)</v>
       </c>
       <c r="B13" s="89"/>
@@ -1945,7 +1942,7 @@
     </row>
     <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="88" t="str">
-        <f>A55</f>
+        <f>A54</f>
         <v>Systemtest</v>
       </c>
       <c r="B14" s="89"/>
@@ -1963,7 +1960,7 @@
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="77" t="str">
-        <f>A63</f>
+        <f>A62</f>
         <v>Handbücher &amp; Lieferdokumentation</v>
       </c>
       <c r="B15" s="78"/>
@@ -1976,7 +1973,7 @@
       <c r="I15" s="79"/>
       <c r="J15" s="21"/>
       <c r="K15" s="57">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2458,8 +2455,8 @@
       </c>
       <c r="J40" s="33"/>
       <c r="K40" s="20">
-        <f>SUM(K41:K51)</f>
-        <v>54</v>
+        <f>SUM(K41:K50)</f>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -2525,7 +2522,7 @@
       <c r="I44" s="61"/>
       <c r="J44" s="33"/>
       <c r="K44" s="42">
-        <f t="shared" ref="K44:K51" si="0">SUM(B44:H44)*(1+I44)</f>
+        <f t="shared" ref="K44:K50" si="0">SUM(B44:H44)*(1+I44)</f>
         <v>0</v>
       </c>
     </row>
@@ -2543,7 +2540,7 @@
       <c r="I45" s="61"/>
       <c r="J45" s="33"/>
       <c r="K45" s="42">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -2560,13 +2557,11 @@
       <c r="I46" s="61"/>
       <c r="J46" s="33"/>
       <c r="K46" s="42">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="66" t="s">
-        <v>103</v>
-      </c>
+      <c r="A47" s="66"/>
       <c r="B47" s="59"/>
       <c r="C47" s="59"/>
       <c r="D47" s="59"/>
@@ -2577,11 +2572,14 @@
       <c r="I47" s="61"/>
       <c r="J47" s="33"/>
       <c r="K47" s="42">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="66"/>
+      <c r="A48" s="66" t="s">
+        <v>97</v>
+      </c>
       <c r="B48" s="59"/>
       <c r="C48" s="59"/>
       <c r="D48" s="59"/>
@@ -2592,14 +2590,11 @@
       <c r="I48" s="61"/>
       <c r="J48" s="33"/>
       <c r="K48" s="42">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="66" t="s">
-        <v>97</v>
-      </c>
+      <c r="A49" s="66"/>
       <c r="B49" s="59"/>
       <c r="C49" s="59"/>
       <c r="D49" s="59"/>
@@ -2610,10 +2605,11 @@
       <c r="I49" s="61"/>
       <c r="J49" s="33"/>
       <c r="K49" s="42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="66"/>
       <c r="B50" s="59"/>
       <c r="C50" s="59"/>
@@ -2629,53 +2625,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="66"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="61"/>
+    <row r="51" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="48" t="s">
+        <v>94</v>
+      </c>
       <c r="J51" s="33"/>
-      <c r="K51" s="42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="22" t="s">
+      <c r="K51" s="20">
+        <f>SUM(K52:K53)</f>
         <v>10</v>
       </c>
-      <c r="B52" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E52" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="48" t="s">
-        <v>94</v>
-      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="61"/>
       <c r="J52" s="33"/>
-      <c r="K52" s="20">
-        <f>SUM(K53:K54)</f>
+      <c r="K52" s="41">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="67" t="s">
-        <v>38</v>
+    <row r="53" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
@@ -2686,64 +2683,64 @@
       <c r="H53" s="38"/>
       <c r="I53" s="61"/>
       <c r="J53" s="33"/>
-      <c r="K53" s="41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="61"/>
+      <c r="K53" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H54" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="I54" s="48" t="s">
+        <v>94</v>
+      </c>
       <c r="J54" s="33"/>
-      <c r="K54" s="43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="F55" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="H55" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="I55" s="48" t="s">
-        <v>94</v>
-      </c>
+      <c r="K54" s="17">
+        <f>SUM(K55:K61)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="59"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="61"/>
       <c r="J55" s="33"/>
-      <c r="K55" s="17">
-        <f>SUM(K56:K62)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="67" t="s">
-        <v>23</v>
+      <c r="K55" s="41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="B56" s="59"/>
       <c r="C56" s="59"/>
@@ -2754,14 +2751,12 @@
       <c r="H56" s="59"/>
       <c r="I56" s="61"/>
       <c r="J56" s="33"/>
-      <c r="K56" s="41">
-        <v>4</v>
+      <c r="K56" s="42">
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="18" t="s">
-        <v>24</v>
-      </c>
+      <c r="A57" s="18"/>
       <c r="B57" s="59"/>
       <c r="C57" s="59"/>
       <c r="D57" s="59"/>
@@ -2772,10 +2767,11 @@
       <c r="I57" s="61"/>
       <c r="J57" s="33"/>
       <c r="K57" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="K57:K61" si="1">SUM(B57:H57)*(1+I57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="18"/>
       <c r="B58" s="59"/>
       <c r="C58" s="59"/>
@@ -2787,7 +2783,7 @@
       <c r="I58" s="61"/>
       <c r="J58" s="33"/>
       <c r="K58" s="42">
-        <f t="shared" ref="K58:K62" si="1">SUM(B58:H58)*(1+I58)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2808,86 +2804,87 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="18"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="59"/>
-      <c r="H60" s="59"/>
-      <c r="I60" s="61"/>
+      <c r="A60" s="67"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="51"/>
       <c r="J60" s="33"/>
       <c r="K60" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="67"/>
-      <c r="B61" s="50"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="50"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="51"/>
+    <row r="61" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="19"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="61"/>
       <c r="J61" s="33"/>
-      <c r="K61" s="42">
+      <c r="K61" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="19"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="59"/>
-      <c r="F62" s="59"/>
-      <c r="G62" s="59"/>
-      <c r="H62" s="59"/>
-      <c r="I62" s="61"/>
+    <row r="62" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="48" t="s">
+        <v>94</v>
+      </c>
       <c r="J62" s="33"/>
-      <c r="K62" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="22" t="s">
+      <c r="K62" s="17">
+        <f>SUM(K63:K67)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="59"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="59"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="61"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="41">
         <v>2</v>
       </c>
-      <c r="B63" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C63" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E63" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="F63" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="J63" s="33"/>
-      <c r="K63" s="17">
-        <f>SUM(K64:K68)</f>
-        <v>4</v>
-      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="67" t="s">
-        <v>68</v>
+      <c r="A64" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="B64" s="59"/>
       <c r="C64" s="59"/>
@@ -2898,13 +2895,13 @@
       <c r="H64" s="38"/>
       <c r="I64" s="61"/>
       <c r="J64" s="33"/>
-      <c r="K64" s="41">
-        <v>1</v>
+      <c r="K64" s="42">
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65" s="59"/>
       <c r="C65" s="59"/>
@@ -2916,13 +2913,11 @@
       <c r="I65" s="61"/>
       <c r="J65" s="33"/>
       <c r="K65" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="18" t="s">
-        <v>70</v>
-      </c>
+      <c r="A66" s="18"/>
       <c r="B66" s="59"/>
       <c r="C66" s="59"/>
       <c r="D66" s="59"/>
@@ -2932,38 +2927,23 @@
       <c r="H66" s="38"/>
       <c r="I66" s="61"/>
       <c r="J66" s="33"/>
-      <c r="K66" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="18"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="59"/>
-      <c r="F67" s="59"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="61"/>
-      <c r="J67" s="33"/>
-      <c r="K67" s="42"/>
-    </row>
-    <row r="68" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="19" t="s">
+      <c r="K66" s="42"/>
+    </row>
+    <row r="67" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="68"/>
-      <c r="H68" s="68"/>
-      <c r="I68" s="69"/>
-      <c r="J68" s="26"/>
-      <c r="K68" s="43">
-        <v>1</v>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="68"/>
+      <c r="H67" s="68"/>
+      <c r="I67" s="69"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="43">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
